--- a/PG_GUI/load_profile.xlsx
+++ b/PG_GUI/load_profile.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\GitHub\Power_Generation_CEP_GUI\PG_GUI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="17970" windowHeight="6120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -410,7 +410,7 @@
   <dimension ref="A1:B12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -467,23 +467,23 @@
         <v>250</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B7" s="2">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="39.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>3330</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="B8" s="2">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+        <v>4360</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>7</v>
       </c>
@@ -491,12 +491,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B10" s="2">
-        <v>1590</v>
+        <v>159340</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="27" thickBot="1" x14ac:dyDescent="0.3">
